--- a/docs/assets/disciplinas/LOM3032.xlsx
+++ b/docs/assets/disciplinas/LOM3032.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -125,13 +125,6 @@
   </si>
   <si>
     <t>1.F. Singer &amp; S. S. Singer, Cerâmica Industrial, V. 11, 19712.Salmang &amp; Scholze, Keramik: Teil2 Keramische Werkstoffe, Springer Verlag, 19833.L. M. Levinson, Electronic Ceramics, Properties, Devices and Applications4.M. J. Hoffmann, Silicon Nitride</t>
-  </si>
-  <si>
-    <t>Requisitos:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOM3074 -  Processamento de Cerâmicas II  (Requisito)
-</t>
   </si>
 </sst>
 </file>
@@ -487,7 +480,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -701,19 +694,6 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" customHeight="1">
-      <c r="B24" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/assets/disciplinas/LOM3032.xlsx
+++ b/docs/assets/disciplinas/LOM3032.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Informar os alunos dos produtos cerâmicos, de suas propriedades e suas aplicações</t>
+    <t>1922320 - Sebastiao Ribeiro</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,13 +79,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>1922320 - Sebastiao Ribeiro</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>1.Cerâmica vermelha2.Cerâmica branca3.Refratários4.Cerâmica eletro-eletrônica5.Cerâmica avançada estrutural</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -94,9 +91,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>01 - Cerâmica vermelha02 - Cerâmica vermelha03 - Cerâmica vermelha04 - Cerâmica vermelha05 - Cerâmica branca06 - Cerâmica branca07 - Refratários08 - Refratários09 - Refratários10 - Cerâmica eletro-eletrônica11 - Cerâmica eletro-eletrônica12 - Cerâmica eletro-eletrônica13 - Cerâmica eletro-eletrônica14 - Cerâmica avançada estrutural15 - Cerâmica avançada estrutural</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -106,25 +100,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>Duas provas escritas (P1 e P2), valendo de 0 (zero) a 10 (dez)</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>Média Parcial (MP): (P1 + P2)/2Média Parcial igual ou superior a 5: aprovação diretaMédia Parcial entre 3 e 5: recuperaçãoMédia Parcial inferior a 5: reprovação direta</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>Para a recuperação será realizada uma prova (PR) abrangendo toda a matéria lecionada no semestre, valendo de 0 (zero) a 10 (dez)Média Final:(MP + PR)/2Média Final igual ou superior a 5 (cinco): aprovadoMédia Final inferior a 5: reprovado</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>1.F. Singer &amp; S. S. Singer, Cerâmica Industrial, V. 11, 19712.Salmang &amp; Scholze, Keramik: Teil2 Keramische Werkstoffe, Springer Verlag, 19833.L. M. Levinson, Electronic Ceramics, Properties, Devices and Applications4.M. J. Hoffmann, Silicon Nitride</t>
   </si>
 </sst>
 </file>
@@ -480,7 +471,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -605,93 +596,85 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="2" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
-      <c r="A17" s="1" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>28</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="C21" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOM3032.xlsx
+++ b/docs/assets/disciplinas/LOM3032.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,19 +70,22 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Informar os alunos dos produtos cerâmicos, de suas propriedades e suas aplicações</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>1922320 - Sebastiao Ribeiro</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>1.Cerâmica vermelha2.Cerâmica branca3.Refratários4.Cerâmica eletro-eletrônica5.Cerâmica avançada estrutural</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -91,6 +94,9 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>01 - Cerâmica vermelha02 - Cerâmica vermelha03 - Cerâmica vermelha04 - Cerâmica vermelha05 - Cerâmica branca06 - Cerâmica branca07 - Refratários08 - Refratários09 - Refratários10 - Cerâmica eletro-eletrônica11 - Cerâmica eletro-eletrônica12 - Cerâmica eletro-eletrônica13 - Cerâmica eletro-eletrônica14 - Cerâmica avançada estrutural15 - Cerâmica avançada estrutural</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -100,22 +106,25 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Duas provas escritas (P1 e P2), valendo de 0 (zero) a 10 (dez)</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Duas provas escritas (P1 e P2), valendo de 0 (zero) a 10 (dez)</t>
+    <t>Média Parcial (MP): (P1 + P2)/2Média Parcial igual ou superior a 5: aprovação diretaMédia Parcial entre 3 e 5: recuperaçãoMédia Parcial inferior a 5: reprovação direta</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>Média Parcial (MP): (P1 + P2)/2Média Parcial igual ou superior a 5: aprovação diretaMédia Parcial entre 3 e 5: recuperaçãoMédia Parcial inferior a 5: reprovação direta</t>
+    <t>Para a recuperação será realizada uma prova (PR) abrangendo toda a matéria lecionada no semestre, valendo de 0 (zero) a 10 (dez)Média Final:(MP + PR)/2Média Final igual ou superior a 5 (cinco): aprovadoMédia Final inferior a 5: reprovado</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>Para a recuperação será realizada uma prova (PR) abrangendo toda a matéria lecionada no semestre, valendo de 0 (zero) a 10 (dez)Média Final:(MP + PR)/2Média Final igual ou superior a 5 (cinco): aprovadoMédia Final inferior a 5: reprovado</t>
+    <t>1.F. Singer &amp; S. S. Singer, Cerâmica Industrial, V. 11, 19712.Salmang &amp; Scholze, Keramik: Teil2 Keramische Werkstoffe, Springer Verlag, 19833.L. M. Levinson, Electronic Ceramics, Properties, Devices and Applications4.M. J. Hoffmann, Silicon Nitride</t>
   </si>
 </sst>
 </file>
@@ -471,13 +480,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -596,85 +605,93 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="B16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
+      <c r="A22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
